--- a/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
+++ b/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
+++ b/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Mat</t>
   </si>
@@ -65,15 +65,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>JAFET</t>
   </si>
 </sst>
 </file>
@@ -632,7 +623,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -665,29 +656,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920095</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
+++ b/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>Mat</t>
   </si>
@@ -65,6 +65,135 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CONDADO</t>
+  </si>
+  <si>
+    <t>FLORENCIO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TOCOHUA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CADEZA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>OCTAVIANO</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>DEL ANGEL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ANGUIANO</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>MIRON</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>JOSUE ALEXIS</t>
+  </si>
+  <si>
+    <t>JESUS ENRIQUE</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>JOSUE GILBERTO</t>
+  </si>
+  <si>
+    <t>ADOLFO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IRVING OTTONIEL</t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>JUAN LUIS</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>OSWALDO ENRIQUE</t>
   </si>
 </sst>
 </file>
@@ -623,7 +752,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,6 +785,374 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920085</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920093</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920097</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920084</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920088</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920090</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920089</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
+++ b/docentes/Fernández Castro Araceli - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Mat</t>
   </si>
@@ -65,135 +65,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CONDADO</t>
-  </si>
-  <si>
-    <t>FLORENCIO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TOCOHUA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CADEZA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>OCTAVIANO</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>DEL ANGEL</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ANGUIANO</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>MIRON</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>JOSE JAZAEL</t>
-  </si>
-  <si>
-    <t>JOSUE ALEXIS</t>
-  </si>
-  <si>
-    <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>JOSUE GILBERTO</t>
-  </si>
-  <si>
-    <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IRVING OTTONIEL</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>JUAN LUIS</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>OSWALDO ENRIQUE</t>
   </si>
 </sst>
 </file>
@@ -665,16 +536,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>56.76</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -733,16 +607,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>54.05</v>
+        <v>56.76</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +626,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -785,374 +659,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920085</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920093</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920097</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920084</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920088</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920090</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920089</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
